--- a/Data/Percentage overlapping facets_4 scenarios.xlsx
+++ b/Data/Percentage overlapping facets_4 scenarios.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{309B3B5B-CC1A-4F79-B482-78537D626C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documentos\GitHub\BiodiversityFacets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DBDCEB-7452-4F89-9D99-64662E5E493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{9B025E83-AA8A-478C-AE4C-6721D31575F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B025E83-AA8A-478C-AE4C-6721D31575F2}"/>
   </bookViews>
   <sheets>
     <sheet name="AC_tops" sheetId="1" r:id="rId1"/>
@@ -14,6 +19,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>top30_hotsp</t>
   </si>
@@ -186,16 +192,10 @@
     <t>Scenario</t>
   </si>
   <si>
-    <t>TD-FD-PD</t>
+    <t>TD + FD + PD</t>
   </si>
   <si>
-    <t>FD-PD</t>
-  </si>
-  <si>
-    <t>TD-FD</t>
-  </si>
-  <si>
-    <t>TD-PD</t>
+    <t>Average%</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +339,17 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -522,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -686,6 +697,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -731,7 +805,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -750,6 +824,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2258,59 +2365,41 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$2:$A$8</c:f>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>TD-FD-PD</c:v>
+                  <c:v>TD + FD + PD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TD-FD</c:v>
+                  <c:v>PD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TD-PD</c:v>
+                  <c:v>FD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FD-PD</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>TD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FD</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$8</c:f>
+              <c:f>Sheet3!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>68.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.91</c:v>
+                  <c:v>33.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.319999999999993</c:v>
+                  <c:v>50.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2347,59 +2436,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$2:$A$8</c:f>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>TD-FD-PD</c:v>
+                  <c:v>TD + FD + PD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TD-FD</c:v>
+                  <c:v>PD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TD-PD</c:v>
+                  <c:v>FD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FD-PD</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>TD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FD</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$8</c:f>
+              <c:f>Sheet3!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>75.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.22</c:v>
+                  <c:v>54.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.9</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>50.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2436,59 +2507,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$2:$A$8</c:f>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>TD-FD-PD</c:v>
+                  <c:v>TD + FD + PD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TD-FD</c:v>
+                  <c:v>PD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TD-PD</c:v>
+                  <c:v>FD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FD-PD</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>TD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FD</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$8</c:f>
+              <c:f>Sheet3!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>59.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.78</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.6</c:v>
+                  <c:v>54.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>33.92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54.16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,12 +2593,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2602,10 +2652,7 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2619,45 +2666,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2667,7 +2675,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2681,12 +2689,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -3845,13 +3850,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4199,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2210EA-E0EE-4349-9B17-B78729094328}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P21"/>
     </sheetView>
   </sheetViews>
@@ -4223,24 +4228,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6518,13 +6523,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0332D-E89A-4615-80B1-361B5887A8EC}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6557,116 +6569,139 @@
         <v>59.68</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E8" si="0">SUM(B2:D2)</f>
+        <f>SUM(B2:D2)</f>
         <v>203.68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11">
-        <v>77.91</v>
+        <v>33.92</v>
       </c>
       <c r="C3" s="11">
-        <v>72.22</v>
+        <v>54.16</v>
       </c>
       <c r="D3" s="11">
-        <v>44.78</v>
+        <v>100</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" si="0"/>
-        <v>194.91</v>
+        <f>SUM(B3:D3)</f>
+        <v>188.07999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11">
-        <v>74.319999999999993</v>
+        <v>50.13</v>
       </c>
       <c r="C4" s="11">
-        <v>58.9</v>
+        <v>100</v>
       </c>
       <c r="D4" s="11">
-        <v>59.6</v>
+        <v>54.16</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="0"/>
-        <v>192.82</v>
+        <f>SUM(B4:D4)</f>
+        <v>204.29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="11">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11">
+        <v>50.13</v>
+      </c>
+      <c r="D5" s="11">
+        <v>33.92</v>
+      </c>
+      <c r="E5" s="11">
+        <f>SUM(B5:D5)</f>
+        <v>184.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="11">
-        <v>43.21</v>
-      </c>
-      <c r="C5" s="11">
-        <v>81.510000000000005</v>
-      </c>
-      <c r="D5" s="11">
-        <v>72.66</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="0"/>
-        <v>197.38</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="11">
-        <v>100</v>
-      </c>
-      <c r="C6" s="11">
-        <v>50.13</v>
-      </c>
-      <c r="D6" s="11">
-        <v>33.92</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>184.05</v>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
+        <v>50.1</v>
+      </c>
+      <c r="D28" s="21">
+        <v>33.9</v>
+      </c>
+      <c r="E28" s="22">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="11">
-        <v>50.13</v>
-      </c>
-      <c r="C7" s="11">
-        <v>100</v>
-      </c>
-      <c r="D7" s="11">
-        <v>54.16</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>204.29</v>
+      <c r="B29" s="20">
+        <v>50.1</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <v>54.2</v>
+      </c>
+      <c r="E29" s="22">
+        <v>52.15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="11">
-        <v>33.92</v>
-      </c>
-      <c r="C8" s="11">
-        <v>54.16</v>
-      </c>
-      <c r="D8" s="11">
-        <v>100</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>188.07999999999998</v>
+      <c r="B30" s="20">
+        <v>33.9</v>
+      </c>
+      <c r="C30" s="20">
+        <v>54.2</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="18">
+        <v>68.5</v>
+      </c>
+      <c r="C31" s="18">
+        <v>75.5</v>
+      </c>
+      <c r="D31" s="16">
+        <v>59.7</v>
+      </c>
+      <c r="E31" s="15">
+        <v>67.900000000000006</v>
       </c>
     </row>
   </sheetData>
